--- a/스크래핑/스크래핑_이우영/다이렉트 참좋은 치아사랑보험 2101_20년.xlsx
+++ b/스크래핑/스크래핑_이우영/다이렉트 참좋은 치아사랑보험 2101_20년.xlsx
@@ -9,12 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
-    <sheet name="20년 실속" sheetId="2" r:id="rId1"/>
-    <sheet name="20년 일반" sheetId="3" r:id="rId2"/>
-    <sheet name="20년 고급" sheetId="4" r:id="rId3"/>
+    <sheet name="20년 실속A" sheetId="6" r:id="rId1"/>
+    <sheet name="20년 실속B" sheetId="5" r:id="rId2"/>
+    <sheet name="20년 실속C" sheetId="2" r:id="rId3"/>
+    <sheet name="20년 일반A" sheetId="8" r:id="rId4"/>
+    <sheet name="20년 일반B" sheetId="7" r:id="rId5"/>
+    <sheet name="20년 일반C" sheetId="3" r:id="rId6"/>
+    <sheet name="20년 고급A" sheetId="4" r:id="rId7"/>
+    <sheet name="20년 고급B" sheetId="9" r:id="rId8"/>
+    <sheet name="20년 고급C" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="30">
   <si>
     <t>상품코드</t>
   </si>
@@ -191,6 +197,38 @@
   </si>
   <si>
     <t>만기환급금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E10048</t>
+  </si>
+  <si>
+    <t>E10048</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E10057</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E10051</t>
+  </si>
+  <si>
+    <t>E10051</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E10060</t>
+  </si>
+  <si>
+    <t>E10054</t>
+  </si>
+  <si>
+    <t>E10054</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E10063</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -592,7 +630,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="A1:I1048576"/>
+      <selection activeCell="I19" sqref="A14:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -981,213 +1019,67 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="1">
-        <v>50</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="1">
-        <v>42360</v>
-      </c>
-      <c r="E14" s="1">
-        <v>20</v>
-      </c>
-      <c r="F14" s="1">
-        <v>20</v>
-      </c>
-      <c r="G14" s="1">
-        <v>90</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1453800</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="1">
-        <v>50</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="1">
-        <v>41330</v>
-      </c>
-      <c r="E15" s="1">
-        <v>20</v>
-      </c>
-      <c r="F15" s="1">
-        <v>20</v>
-      </c>
-      <c r="G15" s="1">
-        <v>90</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1418500</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="1">
-        <v>55</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="4">
-        <v>33190</v>
-      </c>
-      <c r="E16" s="1">
-        <v>20</v>
-      </c>
-      <c r="F16" s="1">
-        <v>20</v>
-      </c>
-      <c r="G16" s="1">
-        <v>90</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1139100</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="4">
-        <v>55</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="4">
-        <v>30660</v>
-      </c>
-      <c r="E17" s="1">
-        <v>20</v>
-      </c>
-      <c r="F17" s="1">
-        <v>20</v>
-      </c>
-      <c r="G17" s="1">
-        <v>90</v>
-      </c>
-      <c r="H17" s="1">
-        <v>1052300</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="4">
-        <v>60</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="4">
-        <v>34710</v>
-      </c>
-      <c r="E18" s="1">
-        <v>20</v>
-      </c>
-      <c r="F18" s="1">
-        <v>20</v>
-      </c>
-      <c r="G18" s="1">
-        <v>90</v>
-      </c>
-      <c r="H18" s="1">
-        <v>1191300</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="4">
-        <v>60</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="4">
-        <v>31130</v>
-      </c>
-      <c r="E19" s="1">
-        <v>20</v>
-      </c>
-      <c r="F19" s="1">
-        <v>20</v>
-      </c>
-      <c r="G19" s="1">
-        <v>90</v>
-      </c>
-      <c r="H19" s="1">
-        <v>1068400</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
       <c r="C20" s="3"/>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
       <c r="C21" s="3"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B24" s="6"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B25" s="6"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B26" s="6"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B27" s="6"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B28" s="6"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B29" s="6"/>
     </row>
   </sheetData>
@@ -1198,10 +1090,368 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" style="1"/>
+    <col min="2" max="2" width="4.5" style="8" customWidth="1"/>
+    <col min="3" max="3" width="6.19921875" style="7" customWidth="1"/>
+    <col min="4" max="9" width="8.796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1">
+        <v>50</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1">
+        <v>42360</v>
+      </c>
+      <c r="E2" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1">
+        <v>20</v>
+      </c>
+      <c r="G2" s="1">
+        <v>90</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1453800</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1">
+        <v>50</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1">
+        <v>41330</v>
+      </c>
+      <c r="E3" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1">
+        <v>90</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1418500</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1">
+        <v>55</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4">
+        <v>33190</v>
+      </c>
+      <c r="E4" s="1">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1">
+        <v>90</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1139100</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="4">
+        <v>55</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4">
+        <v>30660</v>
+      </c>
+      <c r="E5" s="1">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1">
+        <v>90</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1052300</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B17" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" style="1"/>
+    <col min="2" max="2" width="4.5" style="8" customWidth="1"/>
+    <col min="3" max="3" width="6.19921875" style="7" customWidth="1"/>
+    <col min="4" max="9" width="8.796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="4">
+        <v>60</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4">
+        <v>34710</v>
+      </c>
+      <c r="E2" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1">
+        <v>20</v>
+      </c>
+      <c r="G2" s="1">
+        <v>90</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1191300</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="4">
+        <v>60</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4">
+        <v>31130</v>
+      </c>
+      <c r="E3" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1">
+        <v>90</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1068400</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="4"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B13" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="A1:I1048576"/>
+      <selection activeCell="A14" sqref="A14:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1240,7 +1490,7 @@
         <v>20</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
@@ -1592,213 +1842,69 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="1">
-        <v>50</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="2">
-        <v>60920</v>
-      </c>
-      <c r="E14" s="1">
-        <v>20</v>
-      </c>
-      <c r="F14" s="1">
-        <v>20</v>
-      </c>
-      <c r="G14" s="1">
-        <v>90</v>
-      </c>
-      <c r="H14" s="1">
-        <v>2090800</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="1">
-        <v>50</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="2">
-        <v>58020</v>
-      </c>
-      <c r="E15" s="1">
-        <v>20</v>
-      </c>
-      <c r="F15" s="1">
-        <v>20</v>
-      </c>
-      <c r="G15" s="1">
-        <v>90</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1991300</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="1">
-        <v>55</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="9">
-        <v>35450</v>
-      </c>
-      <c r="E16" s="1">
-        <v>20</v>
-      </c>
-      <c r="F16" s="1">
-        <v>20</v>
-      </c>
-      <c r="G16" s="1">
-        <v>90</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1216700</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="4">
-        <v>55</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="9">
-        <v>32670</v>
-      </c>
-      <c r="E17" s="1">
-        <v>20</v>
-      </c>
-      <c r="F17" s="1">
-        <v>20</v>
-      </c>
-      <c r="G17" s="1">
-        <v>90</v>
-      </c>
-      <c r="H17" s="1">
-        <v>1121300</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="4">
-        <v>60</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="9">
-        <v>36920</v>
-      </c>
-      <c r="E18" s="1">
-        <v>20</v>
-      </c>
-      <c r="F18" s="1">
-        <v>20</v>
-      </c>
-      <c r="G18" s="1">
-        <v>90</v>
-      </c>
-      <c r="H18" s="1">
-        <v>1267100</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="4">
-        <v>60</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="9">
-        <v>33020</v>
-      </c>
-      <c r="E19" s="1">
-        <v>20</v>
-      </c>
-      <c r="F19" s="1">
-        <v>20</v>
-      </c>
-      <c r="G19" s="1">
-        <v>90</v>
-      </c>
-      <c r="H19" s="1">
-        <v>1133300</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
       <c r="C20" s="3"/>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
       <c r="C21" s="3"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B24" s="6"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B25" s="6"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B26" s="6"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B27" s="6"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B28" s="6"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B29" s="6"/>
     </row>
   </sheetData>
@@ -1807,12 +1913,374 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" style="1"/>
+    <col min="2" max="2" width="4.5" style="8" customWidth="1"/>
+    <col min="3" max="3" width="6.19921875" style="7" customWidth="1"/>
+    <col min="4" max="6" width="8.796875" style="1"/>
+    <col min="7" max="8" width="18.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.796875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1">
+        <v>50</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2">
+        <v>60920</v>
+      </c>
+      <c r="E2" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1">
+        <v>20</v>
+      </c>
+      <c r="G2" s="1">
+        <v>90</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2090800</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1">
+        <v>50</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2">
+        <v>58020</v>
+      </c>
+      <c r="E3" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1">
+        <v>90</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1991300</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1">
+        <v>55</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9">
+        <v>35450</v>
+      </c>
+      <c r="E4" s="1">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1">
+        <v>90</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1216700</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="4">
+        <v>55</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="9">
+        <v>32670</v>
+      </c>
+      <c r="E5" s="1">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1">
+        <v>90</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1121300</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B17" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" style="1"/>
+    <col min="2" max="2" width="4.5" style="8" customWidth="1"/>
+    <col min="3" max="3" width="6.19921875" style="7" customWidth="1"/>
+    <col min="4" max="6" width="8.796875" style="1"/>
+    <col min="7" max="8" width="18.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.796875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="4">
+        <v>60</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="9">
+        <v>36920</v>
+      </c>
+      <c r="E2" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1">
+        <v>20</v>
+      </c>
+      <c r="G2" s="1">
+        <v>90</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1267100</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4">
+        <v>60</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="9">
+        <v>33020</v>
+      </c>
+      <c r="E3" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1">
+        <v>90</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1133300</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="4"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B13" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2204,214 +2672,427 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <v>50</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="1">
-        <v>63090</v>
-      </c>
-      <c r="E14" s="1">
-        <v>20</v>
-      </c>
-      <c r="F14" s="1">
-        <v>20</v>
-      </c>
-      <c r="G14" s="1">
-        <v>90</v>
-      </c>
-      <c r="H14" s="1">
-        <v>2165300</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1">
-        <v>50</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="1">
-        <v>60390</v>
-      </c>
-      <c r="E15" s="1">
-        <v>20</v>
-      </c>
-      <c r="F15" s="1">
-        <v>20</v>
-      </c>
-      <c r="G15" s="1">
-        <v>90</v>
-      </c>
-      <c r="H15" s="1">
-        <v>2072600</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="1">
-        <v>55</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="4">
-        <v>36170</v>
-      </c>
-      <c r="E16" s="1">
-        <v>20</v>
-      </c>
-      <c r="F16" s="1">
-        <v>20</v>
-      </c>
-      <c r="G16" s="1">
-        <v>90</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1241400</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="4">
-        <v>55</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="4">
-        <v>33530</v>
-      </c>
-      <c r="E17" s="1">
-        <v>20</v>
-      </c>
-      <c r="F17" s="1">
-        <v>20</v>
-      </c>
-      <c r="G17" s="1">
-        <v>90</v>
-      </c>
-      <c r="H17" s="1">
-        <v>1150800</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="4">
-        <v>60</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="4">
-        <v>37690</v>
-      </c>
-      <c r="E18" s="1">
-        <v>20</v>
-      </c>
-      <c r="F18" s="1">
-        <v>20</v>
-      </c>
-      <c r="G18" s="1">
-        <v>90</v>
-      </c>
-      <c r="H18" s="1">
-        <v>1293600</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="4">
-        <v>60</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="4">
-        <v>33920</v>
-      </c>
-      <c r="E19" s="1">
-        <v>20</v>
-      </c>
-      <c r="F19" s="1">
-        <v>20</v>
-      </c>
-      <c r="G19" s="1">
-        <v>90</v>
-      </c>
-      <c r="H19" s="1">
-        <v>1164200</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
       <c r="C20" s="3"/>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
       <c r="C21" s="3"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B24" s="6"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B25" s="6"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B26" s="6"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B27" s="6"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B28" s="6"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B29" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" style="1"/>
+    <col min="2" max="2" width="4.5" style="8" customWidth="1"/>
+    <col min="3" max="3" width="6.19921875" style="7" customWidth="1"/>
+    <col min="4" max="6" width="8.796875" style="1"/>
+    <col min="7" max="7" width="17.19921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.796875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="1">
+        <v>50</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1">
+        <v>63090</v>
+      </c>
+      <c r="E2" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1">
+        <v>20</v>
+      </c>
+      <c r="G2" s="1">
+        <v>90</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2165300</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1">
+        <v>50</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1">
+        <v>60390</v>
+      </c>
+      <c r="E3" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1">
+        <v>90</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2072600</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1">
+        <v>55</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4">
+        <v>36170</v>
+      </c>
+      <c r="E4" s="1">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1">
+        <v>90</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1241400</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="4">
+        <v>55</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4">
+        <v>33530</v>
+      </c>
+      <c r="E5" s="1">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1">
+        <v>90</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1150800</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B17" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" style="1"/>
+    <col min="2" max="2" width="4.5" style="8" customWidth="1"/>
+    <col min="3" max="3" width="6.19921875" style="7" customWidth="1"/>
+    <col min="4" max="6" width="8.796875" style="1"/>
+    <col min="7" max="7" width="17.19921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.796875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="4">
+        <v>60</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4">
+        <v>37690</v>
+      </c>
+      <c r="E2" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1">
+        <v>20</v>
+      </c>
+      <c r="G2" s="1">
+        <v>90</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1293600</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="4">
+        <v>60</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4">
+        <v>33920</v>
+      </c>
+      <c r="E3" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1">
+        <v>90</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1164200</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="4"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B12" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
